--- a/python9/work2/test_num_data/testdata.xlsx
+++ b/python9/work2/test_num_data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7785" activeTab="2"/>
+    <workbookView windowWidth="20160" windowHeight="6945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python9" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>小幸福1</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>菜菜</t>
+  </si>
+  <si>
+    <t>case_id</t>
   </si>
   <si>
     <t>url</t>
@@ -164,15 +167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,14 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -226,7 +212,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,9 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +248,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -272,21 +273,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +304,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -313,7 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,6 +460,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,150 +485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,17 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,16 +517,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +548,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -559,39 +595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -612,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,22 +1238,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="55.625" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1263,12 +1266,15 @@
       <c r="D1" t="s">
         <v>30</v>
       </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
@@ -1277,85 +1283,31 @@
       <c r="D2" t="s">
         <v>34</v>
       </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+    <row r="3" customFormat="1" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://119.23.241.154:8080/api/login" tooltip="http://119.23.241.154:8080/api/login"/>
-    <hyperlink ref="A3" r:id="rId1" display="http://119.23.241.154:8080/api/login" tooltip="http://119.23.241.154:8080/api/login"/>
-    <hyperlink ref="A4" r:id="rId1" display="http://119.23.241.154:8080/api/login" tooltip="http://119.23.241.154:8080/api/login"/>
-    <hyperlink ref="A5" r:id="rId1" display="http://119.23.241.154:8080/api/login" tooltip="http://119.23.241.154:8080/api/login"/>
-    <hyperlink ref="A6" r:id="rId1" display="http://119.23.241.154:8080/api/login" tooltip="http://119.23.241.154:8080/api/login"/>
-    <hyperlink ref="A7" r:id="rId1" display="http://119.23.241.154:8080/api/login" tooltip="http://119.23.241.154:8080/api/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://119.23.241.154:8080/api/login" tooltip="http://119.23.241.154:8080/api/login"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://119.23.241.154:8080/api/login" tooltip="http://119.23.241.154:8080/api/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
